--- a/analysis_results/Gemini_Java_o4_mini_AllTests_10_20250602_154303/combined_analysis_Java_o4_mini_AllTests_20250602_154303.xlsx
+++ b/analysis_results/Gemini_Java_o4_mini_AllTests_10_20250602_154303/combined_analysis_Java_o4_mini_AllTests_20250602_154303.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\Documents\Programming\FT\AI_flaky_test_detection\analysis_results\Java_o4_mini_AllTests_10_20250602_154303\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samso\Documents\Programming\FT\AI_flaky_test_detection\analysis_results\Gemini_Java_o4_mini_AllTests_10_20250602_154303\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40D29C4-0007-406A-BD81-6562DF120F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B20AC4-DC7C-464E-8073-D13E15DDDC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="531" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1148,13 +1148,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="92.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
@@ -1542,7 +1542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
